--- a/democratic_primary/analysis/mini tuesday .xlsx
+++ b/democratic_primary/analysis/mini tuesday .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/democratic_primary/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5330E6-03F6-EE40-986F-EFA03A28DBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC2B7E-9C44-D948-B306-5A3EB6642F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="36200" windowHeight="20140" xr2:uid="{D07636D3-C661-FF4D-8313-9B7ED0825CC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D07636D3-C661-FF4D-8313-9B7ED0825CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,10 +99,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="&quot;Biden +&quot;0.0;&quot;Sanders +&quot;0.0;0"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Biden +&quot;0.0;&quot;Sanders +&quot;0.0;0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -141,16 +141,28 @@
       <color theme="1"/>
       <name val="Brandon Grotesque Regular"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="BrandonGrotesque-Regular"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3B41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -262,19 +274,6 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="1"/>
@@ -332,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,64 +346,56 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,6 +404,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3B41"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -422,6 +418,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>462845</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>632178</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20811705-394B-8747-AAA0-8F6A69781D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9409289" y="4092222"/>
+          <a:ext cx="10058400" cy="4749800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +580,7 @@
             <v>Michigan</v>
           </cell>
           <cell r="S20">
-            <v>15</v>
+            <v>16.5</v>
           </cell>
         </row>
         <row r="21">
@@ -543,7 +588,7 @@
             <v>Washington</v>
           </cell>
           <cell r="S21">
-            <v>0</v>
+            <v>-0.19999999999999574</v>
           </cell>
         </row>
         <row r="22">
@@ -551,7 +596,7 @@
             <v>Missouri</v>
           </cell>
           <cell r="S22">
-            <v>26</v>
+            <v>25.699999999999996</v>
           </cell>
         </row>
         <row r="23">
@@ -559,7 +604,7 @@
             <v>Mississippi</v>
           </cell>
           <cell r="S23">
-            <v>66</v>
+            <v>66.199999999999989</v>
           </cell>
         </row>
         <row r="24">
@@ -567,15 +612,7 @@
             <v>Idaho</v>
           </cell>
           <cell r="S24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>North Dakota</v>
-          </cell>
-          <cell r="S25">
-            <v>0</v>
+            <v>6.3000000000000043</v>
           </cell>
         </row>
       </sheetData>
@@ -883,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502737E0-8B48-FD4C-A8F6-66925742E021}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -893,7 +930,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="36">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -914,15 +951,15 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
@@ -943,43 +980,43 @@
       <c r="G2" s="7">
         <v>-2.5999999999999943</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="23">
         <f>INDEX([1]results!$S:$S,MATCH(A2,[1]results!$A:$A,0))</f>
-        <v>15</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="19">
         <f>ABS(B2-$H2)</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="19">
         <f t="shared" ref="C3:G3" si="0">ABS(C2-$H2)</f>
-        <v>9</v>
-      </c>
-      <c r="D3" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="19">
         <f t="shared" si="0"/>
-        <v>10.400000000000006</v>
-      </c>
-      <c r="E3" s="24">
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="E3" s="19">
         <f t="shared" si="0"/>
-        <v>11.399999999999999</v>
-      </c>
-      <c r="F3" s="24">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="F3" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="19">
         <f t="shared" si="0"/>
-        <v>17.599999999999994</v>
-      </c>
-      <c r="H3" s="13"/>
+        <v>19.099999999999994</v>
+      </c>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -1000,24 +1037,42 @@
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="23">
+        <f>INDEX([1]results!$S:$S,MATCH(A4,[1]results!$A:$A,0))</f>
+        <v>-0.19999999999999574</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="19">
+        <f>ABS(B4-$H4)</f>
+        <v>12.199999999999996</v>
+      </c>
+      <c r="C5" s="19">
+        <f t="shared" ref="C5" si="1">ABS(C4-$H4)</f>
+        <v>3.1999999999999957</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" ref="D5" si="2">ABS(D4-$H4)</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" ref="E5" si="3">ABS(E4-$H4)</f>
+        <v>13.699999999999996</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" ref="F5" si="4">ABS(F4-$H4)</f>
+        <v>1.2000000000000028</v>
+      </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7">
@@ -1038,40 +1093,40 @@
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="23">
         <f>INDEX([1]results!$S:$S,MATCH(A6,[1]results!$A:$A,0))</f>
-        <v>26</v>
+        <v>25.699999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="19">
         <f>ABS(B6-$H6)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="24">
-        <f t="shared" ref="C7" si="1">ABS(C6-$H6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="24">
-        <f t="shared" ref="D7" si="2">ABS(D6-$H6)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" ref="E7" si="3">ABS(E6-$H6)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" ref="F7" si="4">ABS(F6-$H6)</f>
-        <v>1.6999999999999957</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="13"/>
+        <v>0.69999999999999574</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" ref="C7" si="5">ABS(C6-$H6)</f>
+        <v>0.30000000000000426</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="6">ABS(D6-$H6)</f>
+        <v>3.3000000000000043</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7" si="7">ABS(E6-$H6)</f>
+        <v>2.8000000000000043</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="8">ABS(F6-$H6)</f>
+        <v>1.3999999999999915</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7">
@@ -1092,78 +1147,97 @@
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="23">
         <f>INDEX([1]results!$S:$S,MATCH(A8,[1]results!$A:$A,0))</f>
-        <v>66</v>
-      </c>
+        <v>66.199999999999989</v>
+      </c>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="19">
         <f>ABS(B8-$H8)</f>
-        <v>26</v>
-      </c>
-      <c r="C9" s="24">
-        <f t="shared" ref="C9" si="5">ABS(C8-$H8)</f>
-        <v>23</v>
-      </c>
-      <c r="D9" s="24">
-        <f t="shared" ref="D9" si="6">ABS(D8-$H8)</f>
-        <v>18</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" ref="E9" si="7">ABS(E8-$H8)</f>
-        <v>10.700000000000003</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" ref="F9" si="8">ABS(F8-$H8)</f>
-        <v>20.599999999999994</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="13"/>
+        <v>26.199999999999989</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" ref="C9" si="9">ABS(C8-$H8)</f>
+        <v>23.199999999999989</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9" si="10">ABS(D8-$H8)</f>
+        <v>18.199999999999989</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" ref="E9" si="11">ABS(E8-$H8)</f>
+        <v>10.899999999999991</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" ref="F9" si="12">ABS(F8-$H8)</f>
+        <v>20.799999999999983</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>8.5999999999999943</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>17.5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>10.300000000000004</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="23">
+        <f>INDEX([1]results!$S:$S,MATCH(A10,[1]results!$A:$A,0))</f>
+        <v>6.3000000000000043</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="19">
+        <f>ABS(B10-$H10)</f>
+        <v>1.3000000000000043</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" ref="C11" si="13">ABS(C10-$H10)</f>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" ref="D11" si="14">ABS(D10-$H10)</f>
+        <v>2.2999999999999901</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" ref="E11" si="15">ABS(E10-$H10)</f>
+        <v>11.199999999999996</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" ref="F11" si="16">ABS(F10-$H10)</f>
+        <v>4</v>
+      </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6">
@@ -1184,62 +1258,80 @@
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="23" t="e">
+        <f>INDEX([1]results!$S:$S,MATCH(A12,[1]results!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="19" t="e">
+        <f>ABS(B12-$H12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="19" t="e">
+        <f t="shared" ref="C13" si="17">ABS(C12-$H12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="19" t="e">
+        <f t="shared" ref="D13" si="18">ABS(D12-$H12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="19" t="e">
+        <f t="shared" ref="E13" si="19">ABS(E12-$H12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="19" t="e">
+        <f t="shared" ref="F13" si="20">ABS(F12-$H12)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="20" t="e">
         <f>SQRT(SUMSQ(B3/2,B5/2,B7/2,B9/2,B11/2,B13/2)/$K$1)</f>
-        <v>7.6485292703891776</v>
-      </c>
-      <c r="C14" s="25">
-        <f t="shared" ref="C14:F14" si="9">SQRT(SUMSQ(C3/2,C5/2,C7/2,C9/2,C11/2,C13/2)/$K$1)</f>
-        <v>7.1297498787358125</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="9"/>
-        <v>6.0632774415602446</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="9"/>
-        <v>4.5707402755644155</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="9"/>
-        <v>5.9739015726742588</v>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="20" t="e">
+        <f t="shared" ref="C14:F14" si="21">SQRT(SUMSQ(C3/2,C5/2,C7/2,C9/2,C11/2,C13/2)/$K$1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1252,7 +1344,7 @@
     <mergeCell ref="H12:H13"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:G4">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1264,7 +1356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1276,7 +1368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:G8">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1288,6 +1380,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:G10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="-50"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <color theme="4"/>
+        <color theme="0"/>
+        <color theme="8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:G12">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="-50"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <color theme="4"/>
+        <color theme="0"/>
+        <color theme="8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="-50"/>
@@ -1299,7 +1415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:G12">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="-50"/>
@@ -1311,8 +1427,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1323,7 +1439,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H2">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="-50"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50"/>
+        <color theme="4"/>
+        <color theme="0"/>
+        <color theme="8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="3"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="-50"/>
@@ -1335,20 +1473,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="-50"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
-        <color theme="4"/>
-        <color theme="0"/>
-        <color theme="8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1360,7 +1486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-50"/>
         <cfvo type="num" val="0"/>
@@ -1371,40 +1497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="-50"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
-        <color theme="4"/>
-        <color theme="0"/>
-        <color theme="8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="-50"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="50"/>
-        <color theme="4"/>
-        <color theme="0"/>
-        <color theme="8"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:F14">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>